--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/PycharmProjects/scrapers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E77B18B-3AC4-C74B-92C2-C6D57CCB55E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C9C20-1F5C-F148-83EC-FDB8EA3D9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{34E93400-1A71-554C-AC64-236F26D6505D}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,7 +421,7 @@
     </row>
     <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>467204</v>
+        <v>278834</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="19" x14ac:dyDescent="0.2">
